--- a/maid/checklist.xlsx
+++ b/maid/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/maid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984200DE-00D1-664E-A334-E52F76097888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE976DA-DF7F-8B48-9B4E-B677D74DDFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{DFAF5B69-4FB9-974B-90EC-994D9AD0D643}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -72,9 +72,6 @@
     <t>Sunset Games</t>
   </si>
   <si>
-    <t>maid.rpg</t>
-  </si>
-  <si>
     <t>maid_in_love.jpg</t>
   </si>
   <si>
@@ -91,14 +88,25 @@
   </si>
   <si>
     <t>Maid with Hope</t>
+  </si>
+  <si>
+    <t>maid.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -126,8 +134,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +454,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,23 +465,23 @@
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -490,10 +499,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -507,10 +516,10 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -518,16 +527,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
